--- a/biology/Zoologie/Conus_wilsi/Conus_wilsi.xlsx
+++ b/biology/Zoologie/Conus_wilsi/Conus_wilsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus wilsi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 30 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la Mer Rouge.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce récemment décrite est présente dans la mer Rouge le long de la côte égyptienne. La localité type se trouve au sud de Quseir. Cette espèce n'est connue que par sa description et on ne sait rien de son écologie et de son habitat, y compris les profondeurs auxquelles elle se trouve. En tant que tel, les effets possibles des processus de menace ne peuvent pas être déterminés, de sorte que jusqu'à ce que des informations supplémentaires soient disponibles, l'espèce ne peut être considérée que comme insuffisamment documentée[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce récemment décrite est présente dans la mer Rouge le long de la côte égyptienne. La localité type se trouve au sud de Quseir. Cette espèce n'est connue que par sa description et on ne sait rien de son écologie et de son habitat, y compris les profondeurs auxquelles elle se trouve. En tant que tel, les effets possibles des processus de menace ne peuvent pas être déterminés, de sorte que jusqu'à ce que des informations supplémentaires soient disponibles, l'espèce ne peut être considérée que comme insuffisamment documentée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_wilsi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_wilsi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus wilsi a été décrite pour la première fois en 1998 par le malacologiste belge André Delsaerdt dans « Gloria Maris »[2],[3].
-Synonymes
-Conus (Rhizoconus) wilsi Delsaerdt, 1998 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus wilsi a été décrite pour la première fois en 1998 par le malacologiste belge André Delsaerdt dans « Gloria Maris »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_wilsi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_wilsi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Rhizoconus) wilsi Delsaerdt, 1998 · appellation alternative
 Kioconus (Ongoconus) wilsi (Delsaerdt, 1998) · non accepté
 Rhizoconus wilsi (Delsaerdt, 1998) · non accepté</t>
         </is>
